--- a/Main/EVE For Me/Database/EVE_TypeID_glacial rock.xlsx
+++ b/Main/EVE For Me/Database/EVE_TypeID_glacial rock.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nqr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nqr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F8FB20-B8E4-489E-92D0-5C89FF50F3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D09FF4-0819-48D1-9637-2BC35E775CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="2010" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25260" yWindow="2550" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Common" sheetId="1" r:id="rId1"/>
+    <sheet name="Compression" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +70,54 @@
   </si>
   <si>
     <t>冰晶矿</t>
+  </si>
+  <si>
+    <t>高密度清冰锥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度白釉冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度聚合冰体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度富清冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度蓝冰矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度朴白釉冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度光滑聚合冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度粗蓝冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度加里多斯冰矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度冰晶矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度电冰体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度黑闪冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -398,11 +447,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -506,6 +558,129 @@
       </c>
       <c r="B13" s="1">
         <v>16269</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A344AE8-654B-4962-A2E3-F522D15D0150}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1">
+        <v>28434</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1">
+        <v>28444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>28438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1">
+        <v>28436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1">
+        <v>28433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1">
+        <v>28441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1">
+        <v>28442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1">
+        <v>28443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1">
+        <v>28437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1">
+        <v>28435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1">
+        <v>28439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1">
+        <v>28440</v>
       </c>
     </row>
   </sheetData>
